--- a/Investments.xlsx
+++ b/Investments.xlsx
@@ -368,24 +368,6 @@
     <t>Great Britain(GBR)</t>
   </si>
   <si>
-    <t>(US) 11306</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (GBR) 609 </t>
-  </si>
-  <si>
-    <t>(IN) 294</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(GBR) $5151843539.000000 </t>
-  </si>
-  <si>
-    <t>(IN) $2436543602.000000</t>
-  </si>
-  <si>
-    <t>(US) $95871347515.000000</t>
-  </si>
-  <si>
     <t xml:space="preserve">(US) Others </t>
   </si>
   <si>
@@ -413,42 +395,6 @@
     <t>(IN) Entertainment</t>
   </si>
   <si>
-    <t xml:space="preserve">(US) 2729 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(GBR) 136 </t>
-  </si>
-  <si>
-    <t>(IN) 94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(US) 2132 </t>
-  </si>
-  <si>
-    <t>(GBR) 125</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (IN) 51</t>
-  </si>
-  <si>
-    <t>(US) 1784</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (GBR) 96 </t>
-  </si>
-  <si>
-    <t>(IN) 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(US) AirTight Networks </t>
-  </si>
-  <si>
-    <t>(GBR) Electric Cloud</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (IN) Myntra</t>
-  </si>
-  <si>
     <t xml:space="preserve">(US) Biodesix </t>
   </si>
   <si>
@@ -462,6 +408,60 @@
   </si>
   <si>
     <t>India(IN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(US) 12150 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(GBR) 628 </t>
+  </si>
+  <si>
+    <t>(IN) 330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(US) $108531347515.000000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(GBR) $5436843539.000000 </t>
+  </si>
+  <si>
+    <t>(IN) $2976543602.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(US) 2923 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(GBR) 143 </t>
+  </si>
+  <si>
+    <t>(IN) 109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(US) 2297 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(GBR) 127 </t>
+  </si>
+  <si>
+    <t>(IN) 52</t>
+  </si>
+  <si>
+    <t>(US) 1912</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (GBR) 98 </t>
+  </si>
+  <si>
+    <t>(IN) 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(US) Virtustream </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(GBR) Electric Cloud </t>
+  </si>
+  <si>
+    <t>(IN) FirstCry.com</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,12 +542,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Lucida Console"/>
       <family val="3"/>
@@ -585,7 +579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -629,35 +623,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -693,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -719,7 +685,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -749,22 +715,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -773,35 +733,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1131,23 +1082,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -1189,7 +1140,7 @@
       <c r="B7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="21" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1257,21 +1208,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -1291,7 +1242,7 @@
       <c r="B5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="38">
+      <c r="C5" s="22">
         <v>11748949.129489999</v>
       </c>
     </row>
@@ -1302,7 +1253,7 @@
       <c r="B6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="22">
         <v>958694.46975299995</v>
       </c>
     </row>
@@ -1313,7 +1264,7 @@
       <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="38">
+      <c r="C7" s="22">
         <v>719817.99690699996</v>
       </c>
     </row>
@@ -1324,7 +1275,7 @@
       <c r="B8" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="38">
+      <c r="C8" s="22">
         <v>73308593.029441997</v>
       </c>
     </row>
@@ -1375,21 +1326,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
@@ -1410,7 +1361,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
@@ -1432,7 +1383,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1459,7 +1410,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1472,38 +1423,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="8" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1514,14 +1465,14 @@
       <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="36" t="s">
-        <v>44</v>
+      <c r="C5" s="17" t="s">
+        <v>58</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1531,14 +1482,14 @@
       <c r="B6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>49</v>
+      <c r="C6" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1549,13 +1500,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1566,13 +1517,13 @@
         <v>8</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1583,13 +1534,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1600,13 +1551,13 @@
         <v>10</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1617,13 +1568,13 @@
         <v>11</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1634,13 +1585,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1651,30 +1602,30 @@
         <v>13</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>10</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1683,7 +1634,7 @@
     <mergeCell ref="A3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="B5">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1691,7 +1642,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1703,6 +1654,28 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:E14 A5:B6 D5:E6">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:A14">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1714,13 +1687,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A14">
+  <conditionalFormatting sqref="C6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFFFEF9C"/>
         <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
